--- a/Excel Template/BERT2 Example/maps-example.xlsx
+++ b/Excel Template/BERT2 Example/maps-example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMEILAC\OneDrive\Programmation\Excel Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fb155657ce99443/Programmation/Outils/Excel Template/BERT2 Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_5FA9C0EB8C6D513FACAF09C69DEA2F4464CBF118" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{412B8A40-5CF2-4884-B465-2F8968671871}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_5FA9C0EB8C6D513FACAF09C69DEA2F4464CBF118" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{412B8A40-5CF2-4884-B465-2F8968671871}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="160" windowWidth="19110" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -531,7 +533,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,9 +549,9 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="b">
-        <f>_xll.R.draw.map(B3:B17,C3:C17, "Projections: SE Asia 2018")</f>
-        <v>1</v>
+      <c r="E2" t="e">
+        <f ca="1">_xll.R.draw.map(B3:B17,C3:C17, "Projections: SE Asia 2018")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
